--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2-Fzd8.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N2">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O2">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P2">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q2">
-        <v>1.475992718304</v>
+        <v>1.830007808647</v>
       </c>
       <c r="R2">
-        <v>8.855956309824</v>
+        <v>10.980046851882</v>
       </c>
       <c r="S2">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="T2">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>6.130444</v>
       </c>
       <c r="O3">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P3">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q3">
         <v>1.174057678290667</v>
@@ -641,10 +641,10 @@
         <v>10.566519104616</v>
       </c>
       <c r="S3">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="T3">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N4">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O4">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P4">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q4">
-        <v>0.00692892828</v>
+        <v>0.002256785264</v>
       </c>
       <c r="R4">
-        <v>0.06236035451999999</v>
+        <v>0.020311067376</v>
       </c>
       <c r="S4">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="T4">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N5">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O5">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P5">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q5">
-        <v>1.868086463673</v>
+        <v>1.126496369331</v>
       </c>
       <c r="R5">
-        <v>11.208518782038</v>
+        <v>6.758978215986</v>
       </c>
       <c r="S5">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="T5">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N6">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O6">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P6">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q6">
-        <v>1.18079337029</v>
+        <v>0.01638448317133333</v>
       </c>
       <c r="R6">
-        <v>10.62714033261</v>
+        <v>0.147460348542</v>
       </c>
       <c r="S6">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="T6">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N7">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O7">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P7">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q7">
-        <v>0.02117306588866667</v>
+        <v>0.003741965994</v>
       </c>
       <c r="R7">
-        <v>0.190557592998</v>
+        <v>0.033677693946</v>
       </c>
       <c r="S7">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="T7">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
     </row>
   </sheetData>
